--- a/Excel - Les Compétences de base/1 Les ABCs d'Excel/V04-Entrer des données.xlsx
+++ b/Excel - Les Compétences de base/1 Les ABCs d'Excel/V04-Entrer des données.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Formation-Microsoft-Excel\Excel - Les Compétences de base\1 Les ABCs d'Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBADA57C-7585-4A2C-AE8E-48A63D5C9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22731" windowHeight="9591"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,28 +27,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Train Ride</t>
+    <t>Objet</t>
+  </si>
+  <si>
+    <t>Coût</t>
+  </si>
+  <si>
+    <t>Voyage en train</t>
+  </si>
+  <si>
+    <t>Dépense</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Diner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,9 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,59 +395,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <f ca="1">TODAY()</f>
+        <v>45060</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>42837</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>12.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <f>SUM(B4:B6)</f>
         <v>28.1</v>
